--- a/Java23 CongHoang Database Design.xlsx
+++ b/Java23 CongHoang Database Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qphan\Desktop\bkit\course - webapp\java23\3. Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java23\3. Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501E8FF5-C810-4696-8157-FAB85EDD4571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14E9CF-1EE1-4AE6-A24F-2CE75E6F3453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3435" windowWidth="24540" windowHeight="11730" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="279">
   <si>
     <t>MatHang</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>Xử lý</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16-r0fOHo80R1WlxcnYY4DITQakojzRjN/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,10 +1375,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P25"/>
+  <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,12 +2181,9 @@
       <c r="P20" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
     </row>
     <row r="24" spans="2:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
@@ -2203,6 +2199,11 @@
       </c>
       <c r="C25" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
